--- a/doc/cocos/小游戏/连连看/工作簿1.xlsx
+++ b/doc/cocos/小游戏/连连看/工作簿1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>a(0,0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>s1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p,t,c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -451,65 +455,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>10000</v>
       </c>
@@ -522,26 +489,8 @@
       <c r="D6" s="2">
         <v>10000</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>10000</v>
       </c>
@@ -554,26 +503,8 @@
       <c r="D7" s="2">
         <v>10000</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -586,26 +517,8 @@
       <c r="D8" s="2">
         <v>10000</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -618,27 +531,9 @@
       <c r="D9" s="2">
         <v>10000</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="7:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G17" s="4"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
@@ -648,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="7:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="3" t="s">
@@ -656,7 +551,7 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="7:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="3" t="s">
@@ -664,7 +559,7 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="7:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G20" s="4" t="s">
         <v>3</v>
       </c>
@@ -675,6 +570,11 @@
         <v>5</v>
       </c>
       <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
